--- a/data/input/data_uw.xlsx
+++ b/data/input/data_uw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cosmicthermo/Desktop/Afairi-Work/Github/Simulation_UW/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A65985-92B7-144D-B8E6-61B193B18BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B3E995-CB5B-6948-9047-13E0A9375AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{EAAEE87E-042B-8C4D-B52E-B80F51B8DCF5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{EAAEE87E-042B-8C4D-B52E-B80F51B8DCF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -836,7 +836,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="5"/>
@@ -885,16 +885,15 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="40% - Accent1" xfId="3" builtinId="31"/>
@@ -956,10 +955,6 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1261,7 +1256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5266D9FA-80CC-CB42-9602-93779702D86C}">
   <dimension ref="A1:T66"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScale="88" workbookViewId="0">
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
@@ -2790,361 +2785,361 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="45">
+      <c r="B1" s="43">
         <v>-12</v>
       </c>
-      <c r="C1" s="45">
+      <c r="C1" s="43">
         <v>-11</v>
       </c>
-      <c r="D1" s="45">
+      <c r="D1" s="43">
         <v>-10</v>
       </c>
-      <c r="E1" s="45">
+      <c r="E1" s="43">
         <v>-9</v>
       </c>
-      <c r="F1" s="45">
+      <c r="F1" s="43">
         <v>-8</v>
       </c>
-      <c r="G1" s="45">
+      <c r="G1" s="43">
         <v>-7</v>
       </c>
-      <c r="H1" s="45">
+      <c r="H1" s="43">
         <v>-6</v>
       </c>
-      <c r="I1" s="45">
+      <c r="I1" s="43">
         <v>-5</v>
       </c>
-      <c r="J1" s="45">
+      <c r="J1" s="43">
         <v>-4</v>
       </c>
-      <c r="K1" s="45">
+      <c r="K1" s="43">
         <v>-3</v>
       </c>
-      <c r="L1" s="45">
+      <c r="L1" s="43">
         <v>-2</v>
       </c>
-      <c r="M1" s="45">
+      <c r="M1" s="43">
         <v>-1</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="43" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="43" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="43" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="43" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="43" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="43" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="43" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="43" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="43" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="43" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="43" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="43" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="43" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="43" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="43" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="43" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="43" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="43" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="43" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="43" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="43" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="45"/>
+      <c r="A23" s="43"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="45"/>
+      <c r="A24" s="43"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="45"/>
+      <c r="A25" s="43"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="43" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="43" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="43" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="43" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="43" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="43" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="43" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="43" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="43" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="43" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="43" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="43" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="43" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="45" t="s">
+      <c r="A39" s="43" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="43" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="43" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="45" t="s">
+      <c r="A42" s="43" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="45"/>
+      <c r="A43" s="43"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="45"/>
+      <c r="A44" s="43"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="45"/>
+      <c r="A45" s="43"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="45" t="s">
+      <c r="A46" s="43" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="45" t="s">
+      <c r="A47" s="43" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="45" t="s">
+      <c r="A48" s="43" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="45" t="s">
+      <c r="A49" s="43" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="45" t="s">
+      <c r="A50" s="43" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="45" t="s">
+      <c r="A51" s="43" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="45" t="s">
+      <c r="A52" s="43" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="45" t="s">
+      <c r="A53" s="43" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="45" t="s">
+      <c r="A54" s="43" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="45" t="s">
+      <c r="A55" s="43" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="45" t="s">
+      <c r="A56" s="43" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="45" t="s">
+      <c r="A57" s="43" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="45" t="s">
+      <c r="A58" s="43" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="45" t="s">
+      <c r="A59" s="43" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="45" t="s">
+      <c r="A60" s="43" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="45" t="s">
+      <c r="A61" s="43" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="45" t="s">
+      <c r="A62" s="43" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="45" t="s">
+      <c r="A63" s="43" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="45" t="s">
+      <c r="A64" s="43" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="45" t="s">
+      <c r="A65" s="43" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="45" t="s">
+      <c r="A66" s="43" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="45" t="s">
+      <c r="A67" s="43" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3158,8 +3153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9167512-F690-484E-A331-EEDB18BC72E0}">
   <dimension ref="A1:EK62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3191,7 +3186,7 @@
       <c r="B2" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="43"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="31" t="s">
         <v>116</v>
       </c>
@@ -3204,7 +3199,7 @@
       <c r="G2" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="41" t="s">
         <v>122</v>
       </c>
       <c r="EK2" t="s">
@@ -3227,11 +3222,11 @@
       <c r="G3" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="44">
+      <c r="H3" s="42">
         <v>0</v>
       </c>
-      <c r="I3" s="42">
-        <f t="shared" ref="I3:AM3" si="0">H3+1</f>
+      <c r="I3">
+        <f t="shared" ref="I3:K3" si="0">H3+1</f>
         <v>1</v>
       </c>
       <c r="J3">
@@ -3262,10 +3257,9 @@
       <c r="G4" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="44">
+      <c r="H4" s="42">
         <v>0</v>
       </c>
-      <c r="I4" s="42"/>
     </row>
     <row r="5" spans="1:141" x14ac:dyDescent="0.2">
       <c r="B5" s="28" t="s">
@@ -3322,16 +3316,16 @@
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
       <c r="EK6" t="s">
         <v>99</v>
       </c>
@@ -3358,7 +3352,6 @@
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
-      <c r="K7" s="42"/>
       <c r="L7" s="17"/>
       <c r="M7" s="20"/>
       <c r="N7" s="20"/>
@@ -3387,9 +3380,9 @@
       <c r="G8" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="17">
-        <f t="shared" ref="H8:H23" si="1">C8</f>
-        <v>0.4</v>
+      <c r="H8" s="44">
+        <f>Sheet1!D40</f>
+        <v>0.05</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
@@ -3423,8 +3416,8 @@
         <v>71</v>
       </c>
       <c r="H9" s="17">
-        <f t="shared" si="1"/>
-        <v>0.05</v>
+        <f>Sheet1!D41</f>
+        <v>1.9884149999999996</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
@@ -3458,8 +3451,8 @@
         <v>72</v>
       </c>
       <c r="H10" s="17">
-        <f t="shared" si="1"/>
-        <v>1.9304999999999996E-2</v>
+        <f>Sheet1!D42</f>
+        <v>1.03</v>
       </c>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -3493,8 +3486,8 @@
         <v>73</v>
       </c>
       <c r="H11" s="17">
-        <f t="shared" si="1"/>
-        <v>0.01</v>
+        <f>Sheet1!D43</f>
+        <v>1.9304999999999996E-2</v>
       </c>
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
@@ -3528,8 +3521,8 @@
         <v>85</v>
       </c>
       <c r="H12" s="17">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
+        <f>Sheet1!D44</f>
+        <v>0.01</v>
       </c>
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
@@ -3563,8 +3556,8 @@
         <v>86</v>
       </c>
       <c r="H13" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>Sheet1!D45</f>
+        <v>0.2</v>
       </c>
       <c r="I13" s="27"/>
       <c r="J13" s="27"/>
@@ -3598,8 +3591,8 @@
         <v>87</v>
       </c>
       <c r="H14" s="17">
-        <f t="shared" si="1"/>
-        <v>5.3999999999999999E-2</v>
+        <f>Sheet1!D46</f>
+        <v>0</v>
       </c>
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
@@ -3633,7 +3626,7 @@
         <v>88</v>
       </c>
       <c r="H15" s="17">
-        <f t="shared" si="1"/>
+        <f>Sheet1!D47</f>
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="I15" s="25"/>
@@ -3668,8 +3661,8 @@
         <v>89</v>
       </c>
       <c r="H16" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>Sheet1!D48</f>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
@@ -3703,7 +3696,7 @@
         <v>90</v>
       </c>
       <c r="H17" s="17">
-        <f t="shared" si="1"/>
+        <f>Sheet1!D49</f>
         <v>0</v>
       </c>
       <c r="I17" s="25"/>
@@ -3738,8 +3731,8 @@
         <v>75</v>
       </c>
       <c r="H18" s="17">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
+        <f>Sheet1!D50</f>
+        <v>0</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
@@ -3773,8 +3766,8 @@
         <v>76</v>
       </c>
       <c r="H19" s="17">
-        <f t="shared" si="1"/>
-        <v>0.7</v>
+        <f>Sheet1!D51</f>
+        <v>0.3</v>
       </c>
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
@@ -3808,8 +3801,8 @@
         <v>77</v>
       </c>
       <c r="H20" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>Sheet1!D52</f>
+        <v>0.7</v>
       </c>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
@@ -3843,8 +3836,8 @@
         <v>78</v>
       </c>
       <c r="H21" s="17">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
+        <f>Sheet1!D53</f>
+        <v>0</v>
       </c>
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
@@ -3878,7 +3871,7 @@
         <v>79</v>
       </c>
       <c r="H22" s="17">
-        <f t="shared" si="1"/>
+        <f>Sheet1!D54</f>
         <v>0.4</v>
       </c>
       <c r="I22" s="20"/>
@@ -3913,7 +3906,7 @@
         <v>80</v>
       </c>
       <c r="H23" s="17">
-        <f t="shared" si="1"/>
+        <f>Sheet1!D55</f>
         <v>0.4</v>
       </c>
       <c r="I23" s="20"/>
@@ -4520,7 +4513,7 @@
       <c r="B2" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="43"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="31" t="s">
         <v>116</v>
       </c>
@@ -4533,7 +4526,7 @@
       <c r="G2" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="41" t="s">
         <v>122</v>
       </c>
       <c r="EK2" t="s">
@@ -4556,10 +4549,10 @@
       <c r="G3" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="44">
+      <c r="H3" s="42">
         <v>0</v>
       </c>
-      <c r="I3" s="42">
+      <c r="I3">
         <f t="shared" ref="I3:K3" si="0">H3+1</f>
         <v>1</v>
       </c>
@@ -4591,10 +4584,9 @@
       <c r="G4" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="44">
+      <c r="H4" s="42">
         <v>0</v>
       </c>
-      <c r="I4" s="42"/>
     </row>
     <row r="5" spans="1:141" x14ac:dyDescent="0.2">
       <c r="B5" s="28" t="s">
@@ -4651,16 +4643,16 @@
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
       <c r="EK6" t="s">
         <v>99</v>
       </c>
@@ -4687,7 +4679,6 @@
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
-      <c r="K7" s="42"/>
       <c r="L7" s="17"/>
       <c r="M7" s="20"/>
       <c r="N7" s="20"/>
@@ -5822,7 +5813,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="5" spans="4:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="39" t="s">
         <v>101</v>
       </c>
       <c r="E5" s="26"/>
@@ -5885,7 +5876,7 @@
     <row r="12" spans="4:8" ht="21" x14ac:dyDescent="0.25">
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="40" t="s">
         <v>107</v>
       </c>
       <c r="G12" s="26"/>
@@ -6020,37 +6011,37 @@
       <c r="H3">
         <v>-12</v>
       </c>
-      <c r="I3" s="38">
+      <c r="I3">
         <v>-11</v>
       </c>
       <c r="J3">
         <v>-10</v>
       </c>
-      <c r="K3" s="38">
+      <c r="K3">
         <v>-9</v>
       </c>
       <c r="L3">
         <v>-8</v>
       </c>
-      <c r="M3" s="38">
+      <c r="M3">
         <v>-7</v>
       </c>
       <c r="N3">
         <v>-6</v>
       </c>
-      <c r="O3" s="38">
+      <c r="O3">
         <v>-5</v>
       </c>
       <c r="P3">
         <v>-4</v>
       </c>
-      <c r="Q3" s="38">
+      <c r="Q3">
         <v>-3</v>
       </c>
       <c r="R3">
         <v>-2</v>
       </c>
-      <c r="S3" s="38">
+      <c r="S3">
         <v>-1</v>
       </c>
       <c r="T3">
@@ -6590,17 +6581,17 @@
       <c r="G5" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
       <c r="EK5" t="s">
         <v>99</v>
       </c>
@@ -6853,7 +6844,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:141" ht="102" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:141" ht="85" x14ac:dyDescent="0.2">
       <c r="B14" s="30" t="s">
         <v>88</v>
       </c>
@@ -6884,7 +6875,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:141" ht="119" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:141" ht="85" x14ac:dyDescent="0.2">
       <c r="B15" s="30" t="s">
         <v>89</v>
       </c>
@@ -6915,7 +6906,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:141" ht="119" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:141" ht="85" x14ac:dyDescent="0.2">
       <c r="B16" s="30" t="s">
         <v>90</v>
       </c>
@@ -6977,7 +6968,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="2:141" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:141" ht="34" x14ac:dyDescent="0.2">
       <c r="B18" s="30" t="s">
         <v>76</v>
       </c>
@@ -7039,7 +7030,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="2:141" ht="68" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:141" ht="51" x14ac:dyDescent="0.2">
       <c r="B20" s="30" t="s">
         <v>78</v>
       </c>
@@ -7101,7 +7092,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="2:141" ht="68" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:141" ht="51" x14ac:dyDescent="0.2">
       <c r="B22" s="30" t="s">
         <v>80</v>
       </c>
